--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_32.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2411037.958066105</v>
+        <v>2405834.624605787</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847139</v>
+        <v>2310564.14322317</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791251</v>
+        <v>419463.0933791243</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8237276.200088328</v>
+        <v>8235506.261917071</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>69.41325765719795</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -713,13 +713,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>51.97135233513931</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -747,7 +747,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
@@ -786,7 +786,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>102.4290392774767</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -798,7 +798,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>117.0771082696214</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>72.55567497641739</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>207.482471954703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>293.9100809018165</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>143.5211634019095</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -987,7 +987,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>13.72084425946462</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -1029,10 +1029,10 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>97.69872321707462</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>83.63319389874106</v>
+        <v>39.71534783581649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -1142,13 +1142,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>91.37649775417424</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>167.0536582330029</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>34.10250295830922</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>130.6455705834373</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1379,16 +1379,16 @@
         <v>304.5664151603044</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>43.01721371098773</v>
       </c>
       <c r="G11" t="n">
         <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>59.68204672927824</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
         <v>244.6944667292003</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H13" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S13" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T13" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U13" t="n">
         <v>188.5931293662016</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>87.52601544627306</v>
       </c>
       <c r="E14" t="n">
         <v>304.5664151603044</v>
@@ -1625,7 +1625,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414333</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
@@ -1664,7 +1664,7 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
         <v>273.2977702070789</v>
@@ -1673,7 +1673,7 @@
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>292.951043632252</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I16" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U16" t="n">
         <v>188.5931293662016</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422876545</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006892</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414245</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003581</v>
+        <v>280.4599644277188</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281738</v>
+        <v>273.2139126555346</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415741</v>
+        <v>265.5568836689348</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806961</v>
+        <v>282.5278558080568</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313972</v>
+        <v>296.6956602587579</v>
       </c>
       <c r="G32" t="n">
-        <v>299.444756602952</v>
+        <v>293.0012941303127</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752494</v>
+        <v>204.8123861026101</v>
       </c>
       <c r="I32" t="n">
-        <v>27.367374384535</v>
+        <v>20.92391191189569</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443512</v>
+        <v>48.81858568179581</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622527</v>
+        <v>105.2357625896134</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158226</v>
+        <v>137.1653684431832</v>
       </c>
       <c r="V32" t="n">
-        <v>229.099369849592</v>
+        <v>222.6559073769527</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274706</v>
+        <v>251.2592108548313</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623489</v>
+        <v>269.5282451897096</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346801</v>
+        <v>276.4959681620408</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046344</v>
+        <v>67.32610467782413</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074585</v>
+        <v>52.47323292810654</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258558</v>
+        <v>38.04694813994627</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546469</v>
+        <v>37.97339019282538</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523196</v>
+        <v>39.72284161259265</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762409</v>
+        <v>50.54167953498478</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419613</v>
+        <v>37.89393170155682</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536806</v>
+        <v>15.73364728272875</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982398</v>
+        <v>6.632145647184672</v>
       </c>
       <c r="S34" t="n">
-        <v>91.2015516253513</v>
+        <v>84.75808915271199</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595234</v>
+        <v>117.3320274868841</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865932</v>
+        <v>166.5545700139539</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734592</v>
+        <v>147.2897179008199</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942093</v>
+        <v>164.46726422157</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409219</v>
+        <v>115.7096851682826</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175983</v>
+        <v>104.8511067449589</v>
       </c>
     </row>
     <row r="35">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>273.8975876338768</v>
+        <v>300.0229587840511</v>
       </c>
       <c r="C41" t="n">
-        <v>292.776907011867</v>
+        <v>292.7769070118669</v>
       </c>
       <c r="D41" t="n">
-        <v>285.1198780252673</v>
+        <v>285.1198780252671</v>
       </c>
       <c r="E41" t="n">
-        <v>302.0908501643892</v>
+        <v>106.2581909707452</v>
       </c>
       <c r="F41" t="n">
-        <v>316.2586546150903</v>
+        <v>316.2586546150902</v>
       </c>
       <c r="G41" t="n">
-        <v>312.5642884866452</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589426</v>
+        <v>224.3753804589424</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822814</v>
+        <v>40.486906268228</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>68.38158003812812</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>124.7987569459457</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995157</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
-        <v>242.2189017332851</v>
+        <v>242.218901733285</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111637</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>289.0912395460419</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.0589625183732</v>
+        <v>296.0589625183731</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415659</v>
+        <v>86.88909903415644</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443899</v>
+        <v>72.03622728443885</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627872</v>
+        <v>57.60994249627858</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915783</v>
+        <v>57.53638454915769</v>
       </c>
       <c r="F43" t="n">
-        <v>59.2858359689251</v>
+        <v>59.28583596892496</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131723</v>
+        <v>70.10467389131709</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788928</v>
+        <v>57.45692605788913</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906121</v>
+        <v>35.29664163906106</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351712</v>
+        <v>26.19514000351698</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090444</v>
+        <v>104.3210835090443</v>
       </c>
       <c r="T43" t="n">
-        <v>136.8950218432165</v>
+        <v>136.8950218432164</v>
       </c>
       <c r="U43" t="n">
-        <v>186.1175643702864</v>
+        <v>186.1175643702862</v>
       </c>
       <c r="V43" t="n">
-        <v>166.8527122571523</v>
+        <v>166.8527122571522</v>
       </c>
       <c r="W43" t="n">
-        <v>184.0302585779025</v>
+        <v>184.0302585779023</v>
       </c>
       <c r="X43" t="n">
-        <v>135.2726795246151</v>
+        <v>135.2726795246149</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.4141011012914</v>
+        <v>124.4141011012913</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.0229587840512</v>
+        <v>300.0229587840511</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>292.7769070118669</v>
       </c>
       <c r="D44" t="n">
-        <v>285.1198780252673</v>
+        <v>109.9667971102778</v>
       </c>
       <c r="E44" t="n">
-        <v>302.0908501643892</v>
+        <v>302.0908501643891</v>
       </c>
       <c r="F44" t="n">
-        <v>316.2586546150903</v>
+        <v>316.2586546150902</v>
       </c>
       <c r="G44" t="n">
-        <v>312.5642884866452</v>
+        <v>312.564288486645</v>
       </c>
       <c r="H44" t="n">
-        <v>8.755339790519912</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822814</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812826</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459458</v>
+        <v>124.7987569459457</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995157</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V44" t="n">
-        <v>242.2189017332851</v>
+        <v>242.218901733285</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8222052111637</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X44" t="n">
-        <v>289.0912395460421</v>
+        <v>289.0912395460419</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.0589625183732</v>
+        <v>296.0589625183731</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415659</v>
+        <v>86.88909903415643</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443899</v>
+        <v>72.03622728443884</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627872</v>
+        <v>57.60994249627856</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915783</v>
+        <v>57.53638454915767</v>
       </c>
       <c r="F46" t="n">
-        <v>59.2858359689251</v>
+        <v>59.28583596892494</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131723</v>
+        <v>70.10467389131708</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788928</v>
+        <v>57.45692605788912</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906121</v>
+        <v>35.29664163906105</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351712</v>
+        <v>26.19514000351697</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090444</v>
+        <v>104.3210835090443</v>
       </c>
       <c r="T46" t="n">
-        <v>136.8950218432165</v>
+        <v>136.8950218432164</v>
       </c>
       <c r="U46" t="n">
-        <v>186.1175643702864</v>
+        <v>186.1175643702862</v>
       </c>
       <c r="V46" t="n">
-        <v>166.8527122571523</v>
+        <v>166.8527122571522</v>
       </c>
       <c r="W46" t="n">
-        <v>184.0302585779025</v>
+        <v>184.0302585779023</v>
       </c>
       <c r="X46" t="n">
-        <v>135.2726795246151</v>
+        <v>135.2726795246149</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.4141011012914</v>
+        <v>124.4141011012912</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>930.9276958196986</v>
+        <v>999.0496848552192</v>
       </c>
       <c r="C2" t="n">
-        <v>930.9276958196986</v>
+        <v>928.9352831812819</v>
       </c>
       <c r="D2" t="n">
-        <v>930.9276958196986</v>
+        <v>928.9352831812819</v>
       </c>
       <c r="E2" t="n">
-        <v>930.9276958196986</v>
+        <v>928.9352831812819</v>
       </c>
       <c r="F2" t="n">
-        <v>918.0736613900804</v>
+        <v>916.0812487516637</v>
       </c>
       <c r="G2" t="n">
-        <v>504.9109058780834</v>
+        <v>502.9184932396668</v>
       </c>
       <c r="H2" t="n">
-        <v>180.8278554445741</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703887</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J2" t="n">
-        <v>187.140511445867</v>
+        <v>138.4138119172016</v>
       </c>
       <c r="K2" t="n">
-        <v>187.140511445867</v>
+        <v>497.3961679446634</v>
       </c>
       <c r="L2" t="n">
-        <v>187.140511445867</v>
+        <v>990.7164596631923</v>
       </c>
       <c r="M2" t="n">
-        <v>625.6413842912887</v>
+        <v>990.7164596631923</v>
       </c>
       <c r="N2" t="n">
-        <v>1151.464273687145</v>
+        <v>1491.883242658643</v>
       </c>
       <c r="O2" t="n">
-        <v>1591.503874579473</v>
+        <v>1491.883242658643</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.691366710995</v>
+        <v>1840.070734790165</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.544013137465</v>
+        <v>1986.923381216635</v>
       </c>
       <c r="S2" t="n">
-        <v>1920.030458078516</v>
+        <v>1820.409826157686</v>
       </c>
       <c r="T2" t="n">
-        <v>1696.529855637933</v>
+        <v>1596.909223717102</v>
       </c>
       <c r="U2" t="n">
-        <v>1644.033540147893</v>
+        <v>1341.156494151701</v>
       </c>
       <c r="V2" t="n">
-        <v>1301.926730851411</v>
+        <v>999.0496848552192</v>
       </c>
       <c r="W2" t="n">
-        <v>930.9276958196986</v>
+        <v>999.0496848552192</v>
       </c>
       <c r="X2" t="n">
-        <v>930.9276958196986</v>
+        <v>999.0496848552192</v>
       </c>
       <c r="Y2" t="n">
-        <v>930.9276958196986</v>
+        <v>999.0496848552192</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>717.4249155602016</v>
+        <v>689.2100785987454</v>
       </c>
       <c r="C3" t="n">
-        <v>566.7706851202938</v>
+        <v>689.2100785987454</v>
       </c>
       <c r="D3" t="n">
-        <v>436.6817177417742</v>
+        <v>559.1211112202258</v>
       </c>
       <c r="E3" t="n">
-        <v>300.2352268526619</v>
+        <v>422.6746203311135</v>
       </c>
       <c r="F3" t="n">
-        <v>300.2352268526619</v>
+        <v>298.2428142142453</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245264</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H3" t="n">
-        <v>91.87799252512728</v>
+        <v>89.88557988671067</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703887</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J3" t="n">
-        <v>42.49073853703887</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K3" t="n">
-        <v>362.2298845992653</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="L3" t="n">
-        <v>845.7959704975785</v>
+        <v>637.1793940166629</v>
       </c>
       <c r="M3" t="n">
-        <v>1371.618859893435</v>
+        <v>1138.346177012113</v>
       </c>
       <c r="N3" t="n">
-        <v>1373.651552706072</v>
+        <v>1639.512960007564</v>
       </c>
       <c r="O3" t="n">
-        <v>1890.171835297053</v>
+        <v>1639.512960007564</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297053</v>
+        <v>1790.551203376222</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750008</v>
+        <v>2000.999251829178</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649877</v>
+        <v>1897.535575791322</v>
       </c>
       <c r="T3" t="n">
-        <v>1788.705394848785</v>
+        <v>1720.551763990231</v>
       </c>
       <c r="U3" t="n">
-        <v>1578.642251527427</v>
+        <v>1510.488620668872</v>
       </c>
       <c r="V3" t="n">
-        <v>1356.102249898494</v>
+        <v>1287.94861903994</v>
       </c>
       <c r="W3" t="n">
-        <v>1237.842544575644</v>
+        <v>1057.831373173226</v>
       </c>
       <c r="X3" t="n">
-        <v>1048.535466925656</v>
+        <v>868.5242955232382</v>
       </c>
       <c r="Y3" t="n">
-        <v>869.221250001163</v>
+        <v>689.2100785987454</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.5434227614405</v>
+        <v>113.7868864808621</v>
       </c>
       <c r="C4" t="n">
-        <v>531.5434227614405</v>
+        <v>113.7868864808621</v>
       </c>
       <c r="D4" t="n">
-        <v>531.5434227614405</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="E4" t="n">
-        <v>531.5434227614405</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="F4" t="n">
-        <v>374.2174879744135</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="G4" t="n">
-        <v>205.963434073859</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="H4" t="n">
-        <v>205.963434073859</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I4" t="n">
-        <v>72.86900871093692</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703887</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590446</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>741.1216772611406</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T4" t="n">
-        <v>741.1216772611406</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="U4" t="n">
-        <v>741.1216772611406</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="V4" t="n">
-        <v>741.1216772611406</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="W4" t="n">
-        <v>741.1216772611406</v>
+        <v>298.9949051721633</v>
       </c>
       <c r="X4" t="n">
-        <v>741.1216772611406</v>
+        <v>298.9949051721633</v>
       </c>
       <c r="Y4" t="n">
-        <v>531.5434227614405</v>
+        <v>298.9949051721633</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1404.060550923663</v>
+        <v>359.3535813976276</v>
       </c>
       <c r="C5" t="n">
-        <v>1010.885049426593</v>
+        <v>62.47471179983322</v>
       </c>
       <c r="D5" t="n">
-        <v>1010.885049426593</v>
+        <v>62.47471179983322</v>
       </c>
       <c r="E5" t="n">
-        <v>1010.885049426593</v>
+        <v>62.47471179983322</v>
       </c>
       <c r="F5" t="n">
-        <v>593.9906109565709</v>
+        <v>49.62067737021503</v>
       </c>
       <c r="G5" t="n">
-        <v>180.8278554445741</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="H5" t="n">
-        <v>180.8278554445741</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703887</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J5" t="n">
-        <v>187.140511445867</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K5" t="n">
-        <v>546.1228674733288</v>
+        <v>399.4806819260841</v>
       </c>
       <c r="L5" t="n">
-        <v>1039.443159191858</v>
+        <v>892.8009736446129</v>
       </c>
       <c r="M5" t="n">
-        <v>1565.266048587714</v>
+        <v>892.8009736446129</v>
       </c>
       <c r="N5" t="n">
-        <v>2091.08893798357</v>
+        <v>1393.967756640063</v>
       </c>
       <c r="O5" t="n">
-        <v>2091.08893798357</v>
+        <v>1834.007357532392</v>
       </c>
       <c r="P5" t="n">
-        <v>2091.08893798357</v>
+        <v>1840.070734790165</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R5" t="n">
-        <v>2086.544013137465</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="S5" t="n">
-        <v>1920.030458078516</v>
+        <v>1858.402739872164</v>
       </c>
       <c r="T5" t="n">
-        <v>1920.030458078516</v>
+        <v>1858.402739872164</v>
       </c>
       <c r="U5" t="n">
-        <v>1920.030458078516</v>
+        <v>1858.402739872164</v>
       </c>
       <c r="V5" t="n">
-        <v>1920.030458078516</v>
+        <v>1516.295930575682</v>
       </c>
       <c r="W5" t="n">
-        <v>1549.031423046803</v>
+        <v>1145.29689554397</v>
       </c>
       <c r="X5" t="n">
-        <v>1404.060550923663</v>
+        <v>755.8442904770264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1404.060550923663</v>
+        <v>359.3535813976276</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>605.5673750163385</v>
+        <v>839.8643090386532</v>
       </c>
       <c r="C6" t="n">
-        <v>454.9131445764307</v>
+        <v>689.2100785987454</v>
       </c>
       <c r="D6" t="n">
-        <v>454.9131445764307</v>
+        <v>559.1211112202258</v>
       </c>
       <c r="E6" t="n">
-        <v>318.4666536873184</v>
+        <v>422.6746203311135</v>
       </c>
       <c r="F6" t="n">
-        <v>194.0348475704502</v>
+        <v>298.2428142142453</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245264</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512728</v>
+        <v>89.88557988671067</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703887</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J6" t="n">
-        <v>155.6057207567663</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K6" t="n">
-        <v>155.6057207567663</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="L6" t="n">
-        <v>155.6057207567663</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="M6" t="n">
-        <v>442.2072945938183</v>
+        <v>861.4042549562992</v>
       </c>
       <c r="N6" t="n">
-        <v>968.0301839896744</v>
+        <v>1118.128143219265</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.550466580655</v>
+        <v>1619.294926214716</v>
       </c>
       <c r="P6" t="n">
-        <v>1890.171835297053</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R6" t="n">
-        <v>2100.619883750008</v>
+        <v>2000.999251829178</v>
       </c>
       <c r="S6" t="n">
-        <v>1965.689206649877</v>
+        <v>1866.068574729047</v>
       </c>
       <c r="T6" t="n">
-        <v>1788.705394848785</v>
+        <v>1689.084762927955</v>
       </c>
       <c r="U6" t="n">
-        <v>1578.642251527427</v>
+        <v>1590.399183920809</v>
       </c>
       <c r="V6" t="n">
-        <v>1356.102249898494</v>
+        <v>1590.399183920809</v>
       </c>
       <c r="W6" t="n">
-        <v>1125.985004031781</v>
+        <v>1360.281938054096</v>
       </c>
       <c r="X6" t="n">
-        <v>936.6779263817925</v>
+        <v>1170.974860404107</v>
       </c>
       <c r="Y6" t="n">
-        <v>757.3637094572998</v>
+        <v>991.6606434796146</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>656.6437036260486</v>
+        <v>226.5097091700056</v>
       </c>
       <c r="C7" t="n">
-        <v>656.6437036260486</v>
+        <v>226.5097091700056</v>
       </c>
       <c r="D7" t="n">
-        <v>656.6437036260486</v>
+        <v>70.87659607252031</v>
       </c>
       <c r="E7" t="n">
-        <v>656.6437036260486</v>
+        <v>70.87659607252031</v>
       </c>
       <c r="F7" t="n">
-        <v>499.3177688390215</v>
+        <v>70.87659607252031</v>
       </c>
       <c r="G7" t="n">
-        <v>331.063714938467</v>
+        <v>70.87659607252031</v>
       </c>
       <c r="H7" t="n">
-        <v>175.585163899961</v>
+        <v>70.87659607252031</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703887</v>
+        <v>70.87659607252031</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703887</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590446</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S7" t="n">
-        <v>741.1216772611406</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T7" t="n">
-        <v>656.6437036260486</v>
+        <v>777.9278461072804</v>
       </c>
       <c r="U7" t="n">
-        <v>656.6437036260486</v>
+        <v>492.4890543491813</v>
       </c>
       <c r="V7" t="n">
-        <v>656.6437036260486</v>
+        <v>226.5097091700056</v>
       </c>
       <c r="W7" t="n">
-        <v>656.6437036260486</v>
+        <v>226.5097091700056</v>
       </c>
       <c r="X7" t="n">
-        <v>656.6437036260486</v>
+        <v>226.5097091700056</v>
       </c>
       <c r="Y7" t="n">
-        <v>656.6437036260486</v>
+        <v>226.5097091700056</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2196.907436154955</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="C8" t="n">
-        <v>1803.731934657886</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="D8" t="n">
-        <v>1418.290805874553</v>
+        <v>702.5094904747293</v>
       </c>
       <c r="E8" t="n">
-        <v>1015.707280991098</v>
+        <v>299.9259655912738</v>
       </c>
       <c r="F8" t="n">
-        <v>598.8128425210757</v>
+        <v>287.0719311616556</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>277.9495796900629</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4805,16 +4805,16 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>191.9627430103717</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>758.8032691226673</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1304.804169167248</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O8" t="n">
         <v>1832.61545280471</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>2196.907436154955</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V8" t="n">
-        <v>2196.907436154955</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W8" t="n">
-        <v>2196.907436154955</v>
+        <v>1477.403224325005</v>
       </c>
       <c r="X8" t="n">
-        <v>2196.907436154955</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="Y8" t="n">
-        <v>2196.907436154955</v>
+        <v>1087.950619258062</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
         <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>554.6660347926879</v>
       </c>
       <c r="M9" t="n">
-        <v>850.6182020620834</v>
+        <v>1140.16403979929</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O9" t="n">
         <v>1725.662044805892</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.6389048885707</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="C10" t="n">
-        <v>204.6389048885707</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="D10" t="n">
-        <v>204.6389048885707</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>204.6389048885707</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>622.0429194582225</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U10" t="n">
-        <v>336.6041277001235</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="V10" t="n">
-        <v>336.6041277001235</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="W10" t="n">
-        <v>204.6389048885707</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="X10" t="n">
-        <v>204.6389048885707</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="Y10" t="n">
-        <v>204.6389048885707</v>
+        <v>237.3930558841897</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1549.258117997884</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C11" t="n">
-        <v>1251.023297788003</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D11" t="n">
-        <v>960.5228502918594</v>
+        <v>731.435776546391</v>
       </c>
       <c r="E11" t="n">
-        <v>652.8800066955921</v>
+        <v>423.7929329501239</v>
       </c>
       <c r="F11" t="n">
-        <v>652.8800066955921</v>
+        <v>380.3412019289242</v>
       </c>
       <c r="G11" t="n">
-        <v>334.6579324707836</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="H11" t="n">
-        <v>105.5155633244626</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411573</v>
@@ -5069,22 +5069,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>3034.383511434015</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2974.098615747876</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2726.932487738582</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W11" t="n">
-        <v>2450.874133994058</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2156.362210214304</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y11" t="n">
-        <v>1854.812182422093</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1493.196009291336</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1629.56928853388</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O12" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
         <v>2146.089571124861</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551002</v>
+        <v>493.084366955101</v>
       </c>
       <c r="C13" t="n">
-        <v>417.819930308278</v>
+        <v>417.8199303082785</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979812</v>
+        <v>357.1274984979816</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443721</v>
+        <v>296.5093676443726</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445337</v>
       </c>
       <c r="G13" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311674</v>
       </c>
       <c r="H13" t="n">
-        <v>100.2728717798493</v>
+        <v>100.2728717798498</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,49 +5200,49 @@
         <v>125.3967468362514</v>
       </c>
       <c r="K13" t="n">
-        <v>300.283149675766</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791391</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469767</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N13" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q13" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R13" t="n">
-        <v>1649.242993404582</v>
+        <v>1649.242993404583</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874321</v>
       </c>
       <c r="T13" t="n">
-        <v>1400.589220329742</v>
+        <v>1400.589220329743</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V13" t="n">
-        <v>1039.052445966844</v>
+        <v>1039.052445966845</v>
       </c>
       <c r="W13" t="n">
-        <v>850.66272518521</v>
+        <v>850.6627251852108</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553814</v>
+        <v>711.5230842553822</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.351704359213</v>
+        <v>583.3517043592138</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1572.977054970836</v>
+        <v>1625.725108676625</v>
       </c>
       <c r="C14" t="n">
-        <v>1572.977054970836</v>
+        <v>1327.490288466743</v>
       </c>
       <c r="D14" t="n">
-        <v>1282.476607474693</v>
+        <v>1239.080171854346</v>
       </c>
       <c r="E14" t="n">
-        <v>974.8337638784255</v>
+        <v>931.4373282580789</v>
       </c>
       <c r="F14" t="n">
-        <v>652.8800066955916</v>
+        <v>609.483571075245</v>
       </c>
       <c r="G14" t="n">
-        <v>334.6579324707832</v>
+        <v>291.2614968504365</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5155633244623</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5312,16 +5312,16 @@
         <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2745.011542002408</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2468.953188257884</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2174.441264478129</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y14" t="n">
-        <v>1878.531119395045</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L15" t="n">
-        <v>381.858273766342</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M15" t="n">
-        <v>1009.629923393023</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1314.578167032715</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1831.098449623696</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2236.719818340093</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551002</v>
       </c>
       <c r="C16" t="n">
-        <v>417.819930308278</v>
+        <v>417.8199303082781</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979811</v>
+        <v>357.1274984979812</v>
       </c>
       <c r="E16" t="n">
         <v>296.509367644372</v>
@@ -5425,34 +5425,34 @@
         <v>234.1241141445333</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311672</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
-        <v>100.2728717798495</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757665</v>
+        <v>300.2831496757664</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791393</v>
+        <v>557.4621512791394</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469766</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q16" t="n">
         <v>1678.203301484817</v>
@@ -5479,7 +5479,7 @@
         <v>711.5230842553818</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592134</v>
+        <v>583.3517043592132</v>
       </c>
     </row>
     <row r="17">
@@ -5498,34 +5498,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5552,7 +5552,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5592,19 +5592,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>865.4243596646552</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O18" t="n">
         <v>1740.468202408463</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K19" t="n">
-        <v>273.0105384364859</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102858</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485498</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975461</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099323</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803439</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924335</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5786,16 +5786,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5835,10 +5835,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5911,25 +5911,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5972,25 +5972,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358934</v>
@@ -6020,7 +6020,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573994</v>
@@ -6066,16 +6066,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L24" t="n">
-        <v>381.858273766342</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M24" t="n">
-        <v>1009.629923393023</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6151,22 +6151,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960405</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567331</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879423</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296503</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218609</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.125737939027</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142185</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>755.8323718938478</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L26" t="n">
-        <v>1342.20402534195</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M26" t="n">
-        <v>1888.204925386531</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N26" t="n">
-        <v>2509.067570753566</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>2949.107171645895</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3390.34602550699</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377512</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6297,22 +6297,22 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>556.9309448458635</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>579.4156798503576</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286449</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390258</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142171</v>
       </c>
       <c r="H29" t="n">
-        <v>116.7612945678971</v>
+        <v>116.7612945678962</v>
       </c>
       <c r="I29" t="n">
         <v>73.36485894755026</v>
@@ -6470,10 +6470,10 @@
         <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1802.420903106096</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473132</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
         <v>2956.374511095034</v>
@@ -6497,13 +6497,13 @@
         <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
         <v>2188.011670848361</v>
@@ -6540,16 +6540,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>876.6700909080899</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="M30" t="n">
-        <v>876.6700909080899</v>
+        <v>1133.990636856185</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084639</v>
+        <v>1719.814764781096</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985474</v>
+        <v>1443.841115634092</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600045</v>
+        <v>1175.601839200824</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144936</v>
+        <v>890.2201666674337</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423753</v>
+        <v>590.5275805474762</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282825</v>
+        <v>294.5666773855442</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267684</v>
+        <v>87.68547930209931</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304553</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="J32" t="n">
-        <v>321.6829079322592</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>680.665263959721</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1173.98555567825</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1719.98645572283</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2247.797739360292</v>
+        <v>2252.184354569789</v>
       </c>
       <c r="O32" t="n">
-        <v>2687.837340252621</v>
+        <v>2692.223955462117</v>
       </c>
       <c r="P32" t="n">
-        <v>3062.541648462116</v>
+        <v>3065.032496333758</v>
       </c>
       <c r="Q32" t="n">
-        <v>3355.87771624345</v>
+        <v>3249.878056474707</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152276</v>
+        <v>3327.510737231446</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.31111849123</v>
+        <v>3278.19903452256</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.50382044855</v>
+        <v>3171.900284432042</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281053</v>
+        <v>3033.349407216705</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382475</v>
+        <v>2808.444450270289</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748667</v>
+        <v>2554.647267588641</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079627</v>
+        <v>2282.396514871763</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398132</v>
+        <v>2003.107658142428</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230765</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831687</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.165412704649</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155368</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986686</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.227297770533</v>
+        <v>204.2348851321164</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304553</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="J33" t="n">
-        <v>68.54262738304553</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>68.54262738304553</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="L33" t="n">
-        <v>552.1087132813587</v>
+        <v>600.6073572313144</v>
       </c>
       <c r="M33" t="n">
-        <v>1179.88036290804</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="N33" t="n">
-        <v>1635.99278821281</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="O33" t="n">
-        <v>2152.513070803791</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590217</v>
+        <v>341.6872565554786</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229148</v>
+        <v>288.6839909715326</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233334</v>
+        <v>250.2527302241121</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804397</v>
+        <v>211.8957704333794</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913165</v>
+        <v>171.7716879964172</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886659</v>
+        <v>120.7194864459275</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806378</v>
+        <v>82.44278775748624</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304553</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="J34" t="n">
-        <v>97.17577828920403</v>
+        <v>151.6460076354899</v>
       </c>
       <c r="K34" t="n">
-        <v>179.0108193991459</v>
+        <v>233.4810487454318</v>
       </c>
       <c r="L34" t="n">
-        <v>343.1384592729457</v>
+        <v>397.6086886192315</v>
       </c>
       <c r="M34" t="n">
-        <v>637.9205452515953</v>
+        <v>627.5238173231635</v>
       </c>
       <c r="N34" t="n">
-        <v>821.1101792828044</v>
+        <v>810.7134513543728</v>
       </c>
       <c r="O34" t="n">
-        <v>1092.305453964898</v>
+        <v>1088.287753884379</v>
       </c>
       <c r="P34" t="n">
-        <v>1320.672127381862</v>
+        <v>1323.033455149256</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392299</v>
+        <v>1326.455651519307</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.37714642278</v>
+        <v>1319.756514501949</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003233</v>
+        <v>1234.142283034563</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569371</v>
+        <v>1115.625083552862</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209175</v>
+        <v>947.3881441448277</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279036</v>
+        <v>798.6106513157167</v>
       </c>
       <c r="W34" t="n">
-        <v>699.559993756985</v>
+        <v>632.4821015969592</v>
       </c>
       <c r="X34" t="n">
-        <v>576.172975937872</v>
+        <v>515.603631730007</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524192</v>
+        <v>409.6934228967151</v>
       </c>
     </row>
     <row r="35">
@@ -6920,16 +6920,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6938,16 +6938,16 @@
         <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O35" t="n">
         <v>2572.923332933306</v>
@@ -6956,10 +6956,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
         <v>3071.119566829236</v>
@@ -6971,7 +6971,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
         <v>2405.467337224691</v>
@@ -6980,7 +6980,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7014,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N36" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>2345.75511703065</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
         <v>2380.454662679751</v>
@@ -7087,7 +7087,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7102,19 +7102,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7157,19 +7157,19 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924219</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411548</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7254,13 +7254,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>112.6101842924878</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>596.176270190801</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7330,19 +7330,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>278.5901810446697</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L40" t="n">
-        <v>442.7178209184696</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567336</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879427</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O40" t="n">
         <v>974.9038003296507</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1853.707880260105</v>
+        <v>1340.175609875974</v>
       </c>
       <c r="C41" t="n">
-        <v>1557.973630753169</v>
+        <v>1044.441360369038</v>
       </c>
       <c r="D41" t="n">
-        <v>1269.97375395997</v>
+        <v>756.4414835758387</v>
       </c>
       <c r="E41" t="n">
-        <v>964.8314810666471</v>
+        <v>649.1099775447829</v>
       </c>
       <c r="F41" t="n">
-        <v>645.3782945867579</v>
+        <v>329.6567910648938</v>
       </c>
       <c r="G41" t="n">
-        <v>329.656791064894</v>
+        <v>329.6567910648938</v>
       </c>
       <c r="H41" t="n">
-        <v>103.0149926215177</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T41" t="n">
-        <v>3105.956385205776</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>2947.644907630508</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V41" t="n">
-        <v>2702.979350324159</v>
+        <v>2507.847696804893</v>
       </c>
       <c r="W41" t="n">
-        <v>2429.42156728258</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X41" t="n">
-        <v>2429.42156728258</v>
+        <v>1942.278560686503</v>
       </c>
       <c r="Y41" t="n">
-        <v>2130.372110193314</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="42">
@@ -7494,19 +7494,19 @@
         <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M42" t="n">
-        <v>865.4243596646552</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344876</v>
+        <v>475.5803720344866</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906098</v>
+        <v>402.816506090609</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832576</v>
+        <v>344.6246449832569</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325931</v>
+        <v>286.5070848325926</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356991</v>
+        <v>226.6224020356987</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252776</v>
+        <v>155.8096001252773</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690463</v>
+        <v>97.77230107690448</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>68.23195016744472</v>
+        <v>127.8475561822075</v>
       </c>
       <c r="K43" t="n">
-        <v>245.569162352916</v>
+        <v>305.1847683676789</v>
       </c>
       <c r="L43" t="n">
-        <v>505.1989733022451</v>
+        <v>564.8145793170082</v>
       </c>
       <c r="M43" t="n">
-        <v>786.9927227160384</v>
+        <v>786.9927227160351</v>
       </c>
       <c r="N43" t="n">
-        <v>1065.684527822777</v>
+        <v>1065.684527822774</v>
       </c>
       <c r="O43" t="n">
-        <v>1323.891465940014</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792122</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.194170237703</v>
+        <v>1638.1941702377</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.734432860412</v>
+        <v>1611.73443286041</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.359601033095</v>
+        <v>1506.359601033093</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.081801191462</v>
+        <v>1368.08180119146</v>
       </c>
       <c r="U43" t="n">
-        <v>1180.084261423496</v>
+        <v>1180.084261423494</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.546168234453</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557634</v>
+        <v>825.657018155762</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288795</v>
+        <v>689.0179479288782</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356559</v>
+        <v>563.3471387356548</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1340.175609875973</v>
+        <v>1409.24791294479</v>
       </c>
       <c r="C44" t="n">
-        <v>1340.175609875973</v>
+        <v>1113.513663437854</v>
       </c>
       <c r="D44" t="n">
-        <v>1052.175733082774</v>
+        <v>1002.43609059919</v>
       </c>
       <c r="E44" t="n">
-        <v>747.0334601894515</v>
+        <v>697.2938177058682</v>
       </c>
       <c r="F44" t="n">
-        <v>427.5802737095623</v>
+        <v>377.8406312259792</v>
       </c>
       <c r="G44" t="n">
-        <v>111.8587701876986</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0149926215177</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3036.88408213696</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2910.824731686509</v>
+        <v>2979.897034755326</v>
       </c>
       <c r="U44" t="n">
-        <v>2752.513254111241</v>
+        <v>2821.585557180058</v>
       </c>
       <c r="V44" t="n">
-        <v>2507.847696804893</v>
+        <v>2576.919999873709</v>
       </c>
       <c r="W44" t="n">
-        <v>2234.289913763313</v>
+        <v>2303.36221683213</v>
       </c>
       <c r="X44" t="n">
-        <v>1942.278560686503</v>
+        <v>2011.35086375532</v>
       </c>
       <c r="Y44" t="n">
-        <v>1643.229103597237</v>
+        <v>1712.301406666054</v>
       </c>
     </row>
     <row r="45">
@@ -7728,13 +7728,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344876</v>
+        <v>475.5803720344865</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906098</v>
+        <v>402.8165060906089</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832576</v>
+        <v>344.6246449832568</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325931</v>
+        <v>286.5070848325925</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356991</v>
+        <v>226.6224020356986</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252776</v>
+        <v>155.8096001252773</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690463</v>
+        <v>97.77230107690447</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>127.8475561822074</v>
+        <v>127.8475561822076</v>
       </c>
       <c r="K46" t="n">
-        <v>305.1847683676787</v>
+        <v>305.184768367679</v>
       </c>
       <c r="L46" t="n">
-        <v>564.8145793170078</v>
+        <v>564.8145793170083</v>
       </c>
       <c r="M46" t="n">
-        <v>846.6083287308011</v>
+        <v>786.9927227160349</v>
       </c>
       <c r="N46" t="n">
-        <v>1065.684527822777</v>
+        <v>1065.684527822774</v>
       </c>
       <c r="O46" t="n">
-        <v>1323.891465940014</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.269802792122</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q46" t="n">
-        <v>1638.194170237703</v>
+        <v>1638.1941702377</v>
       </c>
       <c r="R46" t="n">
-        <v>1611.734432860412</v>
+        <v>1611.73443286041</v>
       </c>
       <c r="S46" t="n">
-        <v>1506.359601033095</v>
+        <v>1506.359601033092</v>
       </c>
       <c r="T46" t="n">
-        <v>1368.081801191462</v>
+        <v>1368.08180119146</v>
       </c>
       <c r="U46" t="n">
-        <v>1180.084261423496</v>
+        <v>1180.084261423494</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.546168234453</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557634</v>
+        <v>825.6570181557618</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288795</v>
+        <v>689.017947928878</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356559</v>
+        <v>563.3471387356545</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7976,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>216.5843692742444</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>592.6552261890622</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>680.25272305077</v>
+        <v>655.3475650705624</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8055,25 +8055,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>623.5213537622977</v>
+        <v>598.6161957820901</v>
       </c>
       <c r="N3" t="n">
-        <v>87.42533791743674</v>
+        <v>591.6011865869449</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>239.6472470098789</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8222,19 +8222,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>680.8592833107132</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>680.25272305077</v>
+        <v>655.3475650705624</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>156.426070733625</v>
       </c>
       <c r="Q5" t="n">
-        <v>178.2845457601837</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>381.8836612786575</v>
+        <v>598.6161957820901</v>
       </c>
       <c r="N6" t="n">
-        <v>616.5063445671525</v>
+        <v>344.6891717056473</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216672</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,10 +8453,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>281.3299123769229</v>
+        <v>363.2059172909298</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,7 +8465,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
@@ -8535,16 +8535,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>279.5693555729969</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>447.5171231095482</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8778,13 +8778,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>223.122899967847</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>327.7205688679246</v>
@@ -8933,7 +8933,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N14" t="n">
         <v>682.2612020826953</v>
@@ -8945,7 +8945,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9003,19 +9003,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>301.8549375253374</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>236.1748646101141</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,13 +9249,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N18" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9419,7 +9419,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9483,13 +9483,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069883</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,19 +9714,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>105.1563108732267</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>301.8549375253374</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9951,19 +9951,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>115.098975589205</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10188,19 +10188,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>447.5171231095471</v>
+        <v>187.5973797276326</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10425,25 +10425,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>515.2544481366739</v>
       </c>
       <c r="M33" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>546.0917343741364</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10662,13 +10662,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.2265410010273</v>
       </c>
       <c r="K36" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
         <v>726.4998994499999</v>
@@ -10680,7 +10680,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10902,16 +10902,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>140.5980025943154</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11142,22 +11142,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>405.2384673331027</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11376,16 +11376,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>318.7342196110055</v>
+        <v>275.7170059000178</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>99.52188106615269</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
-        <v>295.2524720077822</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>200.0694275749094</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.583483882036455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-1.125499693443999e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>26.12537115017447</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,13 +25634,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>195.8326591936438</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25676,10 +25676,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812826</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>124.7987569459458</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25691,7 +25691,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>289.0912395460421</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25865,10 +25865,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>292.776907011867</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>175.1530809149893</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>215.6200406684227</v>
+        <v>224.3753804589424</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>40.48690626822798</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>68.38158003812811</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>717416.2741095833</v>
+        <v>716513.9526889429</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>717416.2741095833</v>
+        <v>716513.9526889429</v>
       </c>
     </row>
     <row r="4">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>723975.1557312259</v>
+        <v>723975.1557312257</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>685530.1785476422</v>
+        <v>685530.1785476423</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>685530.1785476422</v>
+        <v>685530.1785476423</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>577062.9698987419</v>
+        <v>577062.9698987418</v>
       </c>
       <c r="C2" t="n">
+        <v>577062.9698987418</v>
+      </c>
+      <c r="D2" t="n">
         <v>577062.9698987416</v>
       </c>
-      <c r="D2" t="n">
-        <v>577062.9698987419</v>
-      </c>
       <c r="E2" t="n">
-        <v>542323.5925863623</v>
+        <v>542323.5925863627</v>
       </c>
       <c r="F2" t="n">
-        <v>542323.5925863629</v>
+        <v>542323.5925863624</v>
       </c>
       <c r="G2" t="n">
-        <v>577062.9698987415</v>
+        <v>577062.9698987418</v>
       </c>
       <c r="H2" t="n">
-        <v>577062.9698987415</v>
+        <v>577062.9698987417</v>
       </c>
       <c r="I2" t="n">
         <v>577062.9698987415</v>
       </c>
       <c r="J2" t="n">
-        <v>577062.9698987409</v>
+        <v>577062.9698987406</v>
       </c>
       <c r="K2" t="n">
-        <v>577062.9698987406</v>
+        <v>577062.9698987404</v>
       </c>
       <c r="L2" t="n">
-        <v>577062.969898742</v>
+        <v>577062.9698987422</v>
       </c>
       <c r="M2" t="n">
         <v>577062.9698987417</v>
       </c>
       <c r="N2" t="n">
-        <v>577062.9698987416</v>
+        <v>577062.9698987418</v>
       </c>
       <c r="O2" t="n">
         <v>544688.2522704607</v>
       </c>
       <c r="P2" t="n">
-        <v>544688.2522704608</v>
+        <v>544688.2522704607</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.297134351</v>
+        <v>169649.0058765498</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602633</v>
+        <v>26460.41160941822</v>
       </c>
       <c r="E3" t="n">
-        <v>130452.9311377121</v>
+        <v>130452.9311377122</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>29094.95587301434</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469667</v>
+        <v>215329.5897923933</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670103</v>
+        <v>46725.80335481248</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436843</v>
+        <v>43782.97194555664</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015666</v>
+        <v>18983.55983015678</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202745.5458432091</v>
+        <v>208555.3986987921</v>
       </c>
       <c r="C4" t="n">
-        <v>202745.5458432091</v>
+        <v>208555.398698792</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
       </c>
       <c r="E4" t="n">
+        <v>135951.9703483081</v>
+      </c>
+      <c r="F4" t="n">
         <v>135951.970348308</v>
-      </c>
-      <c r="F4" t="n">
-        <v>135951.9703483081</v>
       </c>
       <c r="G4" t="n">
         <v>160556.29099179</v>
@@ -26445,7 +26445,7 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>160983.928801512</v>
+        <v>160850.5341924572</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26454,10 +26454,10 @@
         <v>160556.29099179</v>
       </c>
       <c r="O4" t="n">
-        <v>137626.5862472993</v>
+        <v>137626.5862472994</v>
       </c>
       <c r="P4" t="n">
-        <v>137626.5862472993</v>
+        <v>137626.5862472994</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814953</v>
+        <v>64406.32768295292</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814953</v>
+        <v>64406.32768295292</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26479,7 +26479,7 @@
         <v>55112.2895089091</v>
       </c>
       <c r="F5" t="n">
-        <v>55112.28950890911</v>
+        <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
         <v>58169.76931551966</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.2134644677</v>
+        <v>60332.67530588339</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.4077825507</v>
+        <v>55320.40778255071</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.4077825507</v>
+        <v>55320.40778255071</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>130401.5656330323</v>
+        <v>134452.237640447</v>
       </c>
       <c r="C6" t="n">
-        <v>308396.8627673829</v>
+        <v>304101.2435169969</v>
       </c>
       <c r="D6" t="n">
-        <v>300069.4174245065</v>
+        <v>292333.1282011142</v>
       </c>
       <c r="E6" t="n">
-        <v>220806.401591433</v>
+        <v>220697.8410373321</v>
       </c>
       <c r="F6" t="n">
-        <v>351259.3327291457</v>
+        <v>351150.7721750441</v>
       </c>
       <c r="G6" t="n">
-        <v>329241.9537184175</v>
+        <v>329241.9537184178</v>
       </c>
       <c r="H6" t="n">
-        <v>358336.9095914318</v>
+        <v>358336.909591432</v>
       </c>
       <c r="I6" t="n">
         <v>358336.9095914318</v>
       </c>
       <c r="J6" t="n">
-        <v>130251.2662416816</v>
+        <v>136767.5513962547</v>
       </c>
       <c r="K6" t="n">
-        <v>352097.1411886481</v>
+        <v>352097.1411886478</v>
       </c>
       <c r="L6" t="n">
-        <v>313202.7942560613</v>
+        <v>309153.9570455891</v>
       </c>
       <c r="M6" t="n">
-        <v>315605.6326570636</v>
+        <v>314553.9376458754</v>
       </c>
       <c r="N6" t="n">
-        <v>358336.9095914319</v>
+        <v>358336.9095914321</v>
       </c>
       <c r="O6" t="n">
-        <v>332757.6984104541</v>
+        <v>332656.5274178655</v>
       </c>
       <c r="P6" t="n">
-        <v>351741.2582406108</v>
+        <v>351640.0872480223</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>93.99127447431647</v>
+      </c>
+      <c r="F2" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="F2" t="n">
-        <v>93.99127447431648</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129859</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129859</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,16 +26811,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>856.782842288069</v>
+        <v>831.8776843078614</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26914,16 +26914,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>36.36869484126792</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087629</v>
+        <v>58.4072541935156</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165956</v>
+        <v>14.33013548902028</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769583</v>
+        <v>23.72944978769597</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129859</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455630921</v>
+        <v>85.18305253651681</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559198</v>
+        <v>646.8007142757124</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455241</v>
+        <v>129.6883820257316</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,16 +27151,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>36.36869484126792</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129859</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455630921</v>
+        <v>85.18305253651681</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,7 +27379,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>319.8304888249007</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>201.2238499346081</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>31.15233105165311</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>110.7389651384246</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>81.521106990093</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27597,13 +27597,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.39846861682003</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>95.33366558028223</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -27625,16 +27625,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>242.0369156143642</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>105.1383754893896</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27749,10 +27749,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>110.26378867107</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27777,25 +27777,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>149.7286674147072</v>
+        <v>193.6465134776317</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27853,7 +27853,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>229.465722175</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>86.14154403674448</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>149.2534355460791</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>149.8515274646969</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="17">
@@ -28743,25 +28743,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668811</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>5.636002634528595</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28983,28 +28983,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>128.2979821082774</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5.636002634528545</v>
-      </c>
-      <c r="R22" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29223,25 +29223,25 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>5.636002634528637</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
+        <v>128.2979821082774</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>86.6505275559943</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431648</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29542,13 +29542,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>93.99127447431646</v>
@@ -29746,31 +29746,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="J32" t="n">
-        <v>109.5863713539248</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>26.784662705024</v>
+        <v>24.86974620214062</v>
       </c>
       <c r="Q32" t="n">
-        <v>109.5863713539248</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
     </row>
     <row r="33">
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="J34" t="n">
-        <v>58.99686212484443</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29937,43 +29937,43 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>109.5863713539248</v>
+        <v>44.06419228855344</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="P34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.5863713539248</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
     </row>
     <row r="35">
@@ -30010,7 +30010,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30174,22 +30174,22 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>128.2979821082778</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>5.636002634529035</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,22 +30402,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K40" t="n">
+        <v>5.636002634529035</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K40" t="n">
-        <v>35.71049010668817</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30499,34 +30499,34 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="J43" t="n">
-        <v>36.24905561693603</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023168</v>
+        <v>36.2490556169322</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023182</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="J46" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023168</v>
+        <v>36.24905561693186</v>
       </c>
       <c r="N46" t="n">
-        <v>36.24905561693609</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="P46" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023168</v>
+        <v>96.46683947023183</v>
       </c>
     </row>
   </sheetData>
@@ -34696,22 +34696,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>98.90453133189833</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>442.930174591335</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>531.1342317129859</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>531.1342317129859</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="N3" t="n">
-        <v>2.05322506327008</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>152.5638821905643</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34942,19 +34942,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>531.1342317129859</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129859</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>6.124623492699798</v>
       </c>
       <c r="Q5" t="n">
-        <v>33.78584734179153</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>289.4965392293456</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="N6" t="n">
-        <v>531.1342317129859</v>
+        <v>259.3170588514806</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>128.0817426464313</v>
+        <v>209.9577475604382</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,7 +35185,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
@@ -35255,16 +35255,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>189.5090087160787</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>362.1450102553815</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35498,13 +35498,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>137.7507871136803</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>236.7324157120106</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N14" t="n">
         <v>533.1427107449111</v>
@@ -35665,7 +35665,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>216.4828246711707</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>145.1867114542002</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
@@ -35820,10 +35820,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P16" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,13 +35969,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N18" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.636002634529037</v>
       </c>
       <c r="K19" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36051,13 +36051,13 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7230387724868</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36139,7 +36139,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>247.8874524576764</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36291,16 +36291,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>292.6462316453562</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.092766644681028</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>216.4828246711707</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36519,10 +36519,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>171.4214974565486</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683764</v>
+        <v>316.4712935610694</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>449.2589679877739</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>22.71185353989308</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,13 +36838,13 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>362.1450102553805</v>
+        <v>102.225266873466</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>255.6972530800138</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
@@ -37078,19 +37078,19 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>649.1725445714753</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>378.4892002116117</v>
+        <v>376.5742837087283</v>
       </c>
       <c r="Q32" t="n">
-        <v>296.2990583649839</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>71.97338677659154</v>
+        <v>78.41684924923085</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>425.1941012797556</v>
       </c>
       <c r="M33" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>460.7196215199698</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
         <v>236.7324157120106</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>28.92237465268536</v>
+        <v>85.95534635440507</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
@@ -37233,19 +37233,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>297.7596828067168</v>
+        <v>232.2375037413454</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>273.9346208910036</v>
+        <v>280.378083363643</v>
       </c>
       <c r="P34" t="n">
-        <v>230.673407491883</v>
+        <v>237.1168699645223</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.0431353640773</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317805</v>
       </c>
       <c r="L35" t="n">
         <v>498.303324968211</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>113.782083667694</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>634.1127774006881</v>
@@ -37400,7 +37400,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>313.3380164832366</v>
       </c>
       <c r="O37" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>51.00106726098205</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>118.3721477934981</v>
+        <v>88.29766032133901</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37713,7 +37713,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37795,10 +37795,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>312.5509084442139</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>6.174568144776964</v>
+        <v>66.39235199807274</v>
       </c>
       <c r="K43" t="n">
-        <v>179.1284971570416</v>
+        <v>179.1284971570418</v>
       </c>
       <c r="L43" t="n">
-        <v>262.2523342922516</v>
+        <v>262.2523342922518</v>
       </c>
       <c r="M43" t="n">
-        <v>284.6401509230236</v>
+        <v>224.4223670697241</v>
       </c>
       <c r="N43" t="n">
-        <v>281.5068738451905</v>
+        <v>281.5068738451906</v>
       </c>
       <c r="O43" t="n">
-        <v>260.8150890073105</v>
+        <v>260.8150890073107</v>
       </c>
       <c r="P43" t="n">
-        <v>217.5538756081899</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038416</v>
+        <v>99.9236034803843</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.3923519980726</v>
+        <v>66.39235199807277</v>
       </c>
       <c r="K46" t="n">
-        <v>179.1284971570416</v>
+        <v>179.1284971570418</v>
       </c>
       <c r="L46" t="n">
-        <v>262.2523342922516</v>
+        <v>262.2523342922518</v>
       </c>
       <c r="M46" t="n">
-        <v>284.6401509230236</v>
+        <v>224.4223670697238</v>
       </c>
       <c r="N46" t="n">
-        <v>221.2890899918949</v>
+        <v>281.5068738451906</v>
       </c>
       <c r="O46" t="n">
-        <v>260.8150890073105</v>
+        <v>260.8150890073107</v>
       </c>
       <c r="P46" t="n">
-        <v>217.5538756081899</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.92360348038416</v>
+        <v>99.92360348038432</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
